--- a/GGIP + PLC Collection/PLC.xlsx
+++ b/GGIP + PLC Collection/PLC.xlsx
@@ -2735,7 +2735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -2834,10 +2834,15 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
+          <t>LPC Gorilla #35 (#1)</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
           <t>LPC Gorilla #32 (#1)</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>LPC Gorilla #26 (#1)</t>
         </is>
@@ -2975,99 +2980,104 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>LPC Gorilla #339 (#1)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>LPC Gorilla #247 (#1)</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>LPC Gorilla #246 (#1)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>LPC Gorilla #243 (#1)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>LPC Gorilla #176 (#1)</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>LPC Gorilla #172 (#1)</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>LPC Gorilla #131 (#1)</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>LPC Gorilla #127 (#1)</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>LPC Gorilla #107 (#1)</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>LPC Gorilla #106 (#1)</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>LPC Gorilla #104 (#1)</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>LPC Gorilla #100 (#1)</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>LPC Gorilla #99 (#1)</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>LPC Gorilla #91 (#1)</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>LPC Gorilla #79 (#1)</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="R5" t="inlineStr">
         <is>
           <t>LPC Gorilla #60 (#1)</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>LPC Gorilla #51 (#1)</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>LPC Gorilla #17 (#1)</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>LPC Gorilla #13 (#1)</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>LPC Gorilla #6 (#1)</t>
         </is>
@@ -3222,180 +3232,175 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>tzunoi</t>
+          <t>mrroboto</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>LPC Gorilla #340 (#1)</t>
+          <t>LPC Gorilla #320 (#1)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LPC Gorilla #328 (#1)</t>
+          <t>LPC Gorilla #298 (#1)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>LPC Gorilla #277 (#1)</t>
+          <t>LPC Gorilla #192 (#1)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>LPC Gorilla #267 (#1)</t>
+          <t>LPC Gorilla #189 (#1)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>LPC Gorilla #219 (#1)</t>
+          <t>LPC Gorilla #159 (#1)</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>LPC Gorilla #69 (#1)</t>
+          <t>LPC Gorilla #154 (#1)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>LPC Gorilla #35 (#1)</t>
+          <t>LPC Gorilla #121 (#1)</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>LPC Gorilla #88 (#1)</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>LPC Gorilla #65 (#1)</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>LPC Gorilla #64 (#1)</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>LPC Gorilla #39 (#1)</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>LPC Gorilla #12 (#1)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jen1234</t>
+          <t>onac</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>LPC Gorilla #344 (#1)</t>
+          <t>LPC Gorilla #264 (#1)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LPC Gorilla #270 (#1)</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>LPC Gorilla #224 (#1)</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>LPC Gorilla #188 (#1)</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>LPC Gorilla #98 (#1)</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>LPC Gorilla #66 (#1)</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>LPC Gorilla #40 (#1)</t>
+          <t>LPC Gorilla #34 (#1)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>mrroboto</t>
+          <t>tzunoi</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>LPC Gorilla #320 (#1)</t>
+          <t>LPC Gorilla #340 (#1)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LPC Gorilla #298 (#1)</t>
+          <t>LPC Gorilla #328 (#1)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>LPC Gorilla #192 (#1)</t>
+          <t>LPC Gorilla #277 (#1)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>LPC Gorilla #189 (#1)</t>
+          <t>LPC Gorilla #267 (#1)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>LPC Gorilla #159 (#1)</t>
+          <t>LPC Gorilla #219 (#1)</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>LPC Gorilla #154 (#1)</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>LPC Gorilla #121 (#1)</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>LPC Gorilla #88 (#1)</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>LPC Gorilla #65 (#1)</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>LPC Gorilla #64 (#1)</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>LPC Gorilla #39 (#1)</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>LPC Gorilla #12 (#1)</t>
+          <t>LPC Gorilla #69 (#1)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>onac</t>
+          <t>jen1234</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>LPC Gorilla #264 (#1)</t>
+          <t>LPC Gorilla #344 (#1)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LPC Gorilla #34 (#1)</t>
+          <t>LPC Gorilla #270 (#1)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>LPC Gorilla #224 (#1)</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>LPC Gorilla #188 (#1)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>LPC Gorilla #98 (#1)</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>LPC Gorilla #66 (#1)</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>LPC Gorilla #40 (#1)</t>
         </is>
       </c>
     </row>
@@ -4874,100 +4879,100 @@
     <row r="131"/>
     <row r="132"/>
     <row r="133"/>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>leootrim</t>
-        </is>
-      </c>
-      <c r="B134" t="n">
-        <v>1</v>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>LPC Gorilla #339 (#1)</t>
-        </is>
-      </c>
-    </row>
+    <row r="134"/>
     <row r="135"/>
     <row r="136"/>
     <row r="137"/>
     <row r="138"/>
-    <row r="139"/>
-    <row r="140">
-      <c r="A140" t="inlineStr">
+    <row r="139">
+      <c r="A139" t="inlineStr">
         <is>
           <t>magicsparks</t>
         </is>
       </c>
-      <c r="B140" t="n">
+      <c r="B139" t="n">
         <v>1</v>
       </c>
-      <c r="C140" t="inlineStr">
+      <c r="C139" t="inlineStr">
         <is>
           <t>LPC Gorilla #115 (#1)</t>
         </is>
       </c>
     </row>
+    <row r="140"/>
     <row r="141"/>
-    <row r="142"/>
-    <row r="143">
-      <c r="A143" t="inlineStr">
+    <row r="142">
+      <c r="A142" t="inlineStr">
         <is>
           <t>marktj</t>
         </is>
       </c>
-      <c r="B143" t="n">
+      <c r="B142" t="n">
         <v>1</v>
       </c>
-      <c r="C143" t="inlineStr">
+      <c r="C142" t="inlineStr">
         <is>
           <t>LPC Gorilla #346 (#1)</t>
         </is>
       </c>
     </row>
+    <row r="143"/>
     <row r="144"/>
     <row r="145"/>
-    <row r="146"/>
-    <row r="147">
-      <c r="A147" t="inlineStr">
+    <row r="146">
+      <c r="A146" t="inlineStr">
         <is>
           <t>metal</t>
         </is>
       </c>
-      <c r="B147" t="n">
+      <c r="B146" t="n">
         <v>1</v>
       </c>
-      <c r="C147" t="inlineStr">
+      <c r="C146" t="inlineStr">
         <is>
           <t>LPC Gorilla #1 (#1)</t>
         </is>
       </c>
     </row>
-    <row r="148"/>
-    <row r="149">
-      <c r="A149" t="inlineStr">
+    <row r="147"/>
+    <row r="148">
+      <c r="A148" t="inlineStr">
         <is>
           <t>mikcoff</t>
         </is>
       </c>
-      <c r="B149" t="n">
+      <c r="B148" t="n">
         <v>1</v>
       </c>
-      <c r="C149" t="inlineStr">
+      <c r="C148" t="inlineStr">
         <is>
           <t>LPC Gorilla #338 (#1)</t>
         </is>
       </c>
     </row>
+    <row r="149"/>
     <row r="150"/>
     <row r="151"/>
     <row r="152"/>
-    <row r="153"/>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>munk5</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>1</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>LPC Gorilla #325 (#1)</t>
+        </is>
+      </c>
+    </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>munk5</t>
+          <t>mursescott</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -4975,67 +4980,67 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>LPC Gorilla #325 (#1)</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>mursescott</t>
-        </is>
-      </c>
-      <c r="B155" t="n">
-        <v>1</v>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
           <t>LPC Gorilla #350 (#1)</t>
         </is>
       </c>
     </row>
+    <row r="155"/>
     <row r="156"/>
     <row r="157"/>
-    <row r="158"/>
-    <row r="159">
-      <c r="A159" t="inlineStr">
+    <row r="158">
+      <c r="A158" t="inlineStr">
         <is>
           <t>nnjarkaz</t>
         </is>
       </c>
-      <c r="B159" t="n">
+      <c r="B158" t="n">
         <v>1</v>
       </c>
-      <c r="C159" t="inlineStr">
+      <c r="C158" t="inlineStr">
         <is>
           <t>LPC Gorilla #157 (#1)</t>
         </is>
       </c>
     </row>
+    <row r="159"/>
     <row r="160"/>
     <row r="161"/>
     <row r="162"/>
-    <row r="163"/>
-    <row r="164">
-      <c r="A164" t="inlineStr">
+    <row r="163">
+      <c r="A163" t="inlineStr">
         <is>
           <t>phantom1</t>
         </is>
       </c>
-      <c r="B164" t="n">
+      <c r="B163" t="n">
         <v>1</v>
       </c>
-      <c r="C164" t="inlineStr">
+      <c r="C163" t="inlineStr">
         <is>
           <t>LPC Gorilla #116 (#1)</t>
         </is>
       </c>
     </row>
-    <row r="165"/>
+    <row r="164"/>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>protonroad</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>1</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>LPC Gorilla #162 (#1)</t>
+        </is>
+      </c>
+    </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>protonroad</t>
+          <t>protox</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -5043,102 +5048,88 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>LPC Gorilla #162 (#1)</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>protox</t>
-        </is>
-      </c>
-      <c r="B167" t="n">
-        <v>1</v>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
           <t>LPC Gorilla #347 (#1)</t>
         </is>
       </c>
     </row>
+    <row r="167"/>
     <row r="168"/>
     <row r="169"/>
     <row r="170"/>
     <row r="171"/>
     <row r="172"/>
-    <row r="173"/>
-    <row r="174">
-      <c r="A174" t="inlineStr">
+    <row r="173">
+      <c r="A173" t="inlineStr">
         <is>
           <t>sassysaz</t>
         </is>
       </c>
-      <c r="B174" t="n">
+      <c r="B173" t="n">
         <v>1</v>
       </c>
-      <c r="C174" t="inlineStr">
+      <c r="C173" t="inlineStr">
         <is>
           <t>LPC Gorilla #168 (#1)</t>
         </is>
       </c>
     </row>
+    <row r="174"/>
     <row r="175"/>
-    <row r="176"/>
-    <row r="177">
-      <c r="A177" t="inlineStr">
+    <row r="176">
+      <c r="A176" t="inlineStr">
         <is>
           <t>sieb21</t>
         </is>
       </c>
-      <c r="B177" t="n">
+      <c r="B176" t="n">
         <v>1</v>
       </c>
-      <c r="C177" t="inlineStr">
+      <c r="C176" t="inlineStr">
         <is>
           <t>LPC Gorilla #323 (#1)</t>
         </is>
       </c>
     </row>
+    <row r="177"/>
     <row r="178"/>
     <row r="179"/>
     <row r="180"/>
     <row r="181"/>
-    <row r="182"/>
-    <row r="183">
-      <c r="A183" t="inlineStr">
+    <row r="182">
+      <c r="A182" t="inlineStr">
         <is>
           <t>supriy</t>
         </is>
       </c>
-      <c r="B183" t="n">
+      <c r="B182" t="n">
         <v>1</v>
       </c>
-      <c r="C183" t="inlineStr">
+      <c r="C182" t="inlineStr">
         <is>
           <t>LPC Gorilla #180 (#1)</t>
         </is>
       </c>
     </row>
+    <row r="183"/>
     <row r="184"/>
     <row r="185"/>
     <row r="186"/>
-    <row r="187"/>
-    <row r="188">
-      <c r="A188" t="inlineStr">
+    <row r="187">
+      <c r="A187" t="inlineStr">
         <is>
           <t>uchemekagu</t>
         </is>
       </c>
-      <c r="B188" t="n">
+      <c r="B187" t="n">
         <v>1</v>
       </c>
-      <c r="C188" t="inlineStr">
+      <c r="C187" t="inlineStr">
         <is>
           <t>LPC Gorilla #279 (#1)</t>
         </is>
       </c>
     </row>
+    <row r="188"/>
     <row r="189"/>
     <row r="190"/>
     <row r="191"/>
